--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,49 +43,49 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
@@ -97,43 +97,49 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ready</t>
   </si>
   <si>
     <t>relief</t>
@@ -145,25 +151,31 @@
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -643,49 +655,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="L4">
+        <v>112</v>
+      </c>
+      <c r="M4">
+        <v>112</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6333333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5526315789473685</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4708994708994709</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.392156862745098</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.375968992248062</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C10">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3728813559322034</v>
+        <v>0.28</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2214765100671141</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,66 +1126,42 @@
         <v>233</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7890625</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>101</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="L13">
-        <v>113</v>
-      </c>
-      <c r="M13">
-        <v>113</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.00676764421527554</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.16</v>
-      </c>
-      <c r="F14">
-        <v>0.84</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3082</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7708333333333334</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1237,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1263,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.75625</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1289,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1315,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1341,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1367,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1393,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1419,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6088235294117647</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1445,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1497,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1523,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5661016949152542</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1549,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1575,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1601,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.3932584269662922</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1627,33 +1615,163 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="L32">
+        <v>165</v>
+      </c>
+      <c r="M32">
+        <v>165</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K32">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>48</v>
+      <c r="K33">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
